--- a/sampleShot.xlsx
+++ b/sampleShot.xlsx
@@ -1392,7 +1392,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1632,6 +1632,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1938,10 +1962,10 @@
   <dimension ref="A1:CI867"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="16" ySplit="4" topLeftCell="R26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="16" ySplit="4" topLeftCell="R200" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="M34" sqref="M34"/>
+      <selection pane="bottomRight" activeCell="I227" sqref="I227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -16723,72 +16747,71 @@
       <c r="CA222" s="1"/>
       <c r="CE222" s="1"/>
     </row>
-    <row r="223" spans="1:87" s="17" customFormat="1">
-      <c r="B223" s="41"/>
-      <c r="C223" s="14"/>
-      <c r="D223" s="14"/>
-      <c r="E223" s="1"/>
-      <c r="F223" s="17">
+    <row r="223" spans="1:87" s="10" customFormat="1">
+      <c r="B223" s="84"/>
+      <c r="C223" s="85"/>
+      <c r="D223" s="85"/>
+      <c r="E223" s="12"/>
+      <c r="F223" s="10">
         <v>5</v>
       </c>
-      <c r="G223" s="1"/>
-      <c r="I223" s="17">
-        <v>1</v>
-      </c>
-      <c r="K223" s="1"/>
-      <c r="M223" s="1"/>
-      <c r="O223" s="1"/>
-      <c r="P223" s="1"/>
-      <c r="Q223" s="1">
+      <c r="G223" s="12"/>
+      <c r="I223" s="10">
+        <v>1</v>
+      </c>
+      <c r="K223" s="12"/>
+      <c r="M223" s="12"/>
+      <c r="O223" s="12"/>
+      <c r="P223" s="12"/>
+      <c r="Q223" s="12">
         <v>1.4500000476837158</v>
       </c>
-      <c r="R223" s="17">
+      <c r="R223" s="10">
         <v>-5.690000057220459</v>
       </c>
-      <c r="S223" s="9"/>
-      <c r="T223" s="8"/>
-      <c r="U223" s="9"/>
-      <c r="V223" s="8"/>
-      <c r="W223" s="67"/>
-      <c r="X223" s="68"/>
-      <c r="Y223" s="52"/>
-      <c r="Z223" s="53"/>
-      <c r="AA223" s="1">
+      <c r="S223" s="86"/>
+      <c r="T223" s="87"/>
+      <c r="U223" s="86"/>
+      <c r="V223" s="87"/>
+      <c r="W223" s="88"/>
+      <c r="X223" s="89"/>
+      <c r="Y223" s="90"/>
+      <c r="Z223" s="91"/>
+      <c r="AA223" s="12">
         <v>2.2100000381469727</v>
       </c>
-      <c r="AB223" s="17">
+      <c r="AB223" s="10">
         <v>-11.699999809265137</v>
       </c>
-      <c r="AC223" s="1">
+      <c r="AC223" s="12">
         <v>-0.50999999046325684</v>
       </c>
-      <c r="AD223" s="17">
+      <c r="AD223" s="10">
         <v>12.390000343322754</v>
       </c>
-      <c r="AE223" s="1" t="s">
+      <c r="AE223" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="AF223" s="1"/>
-      <c r="AI223" s="1"/>
-      <c r="AK223" s="1"/>
-      <c r="AN223" s="1"/>
-      <c r="AR223" s="1"/>
-      <c r="AU223" s="1"/>
-      <c r="AX223" s="1"/>
-      <c r="BD223" s="1"/>
-      <c r="BH223" s="4"/>
-      <c r="BJ223" s="1"/>
-      <c r="BL223" s="1"/>
-      <c r="BO223" s="1"/>
-      <c r="BQ223" s="4"/>
-      <c r="BU223" s="1"/>
-      <c r="BW223" s="1"/>
-      <c r="BY223" s="1"/>
-      <c r="CA223" s="1"/>
-      <c r="CE223" s="1"/>
+      <c r="AF223" s="12"/>
+      <c r="AI223" s="12"/>
+      <c r="AK223" s="12"/>
+      <c r="AN223" s="12"/>
+      <c r="AR223" s="12"/>
+      <c r="AU223" s="12"/>
+      <c r="AX223" s="12"/>
+      <c r="BD223" s="12"/>
+      <c r="BH223" s="11"/>
+      <c r="BJ223" s="12"/>
+      <c r="BL223" s="12"/>
+      <c r="BO223" s="12"/>
+      <c r="BQ223" s="11"/>
+      <c r="BU223" s="12"/>
+      <c r="BW223" s="12"/>
+      <c r="BY223" s="12"/>
+      <c r="CA223" s="12"/>
+      <c r="CE223" s="12"/>
     </row>
     <row r="224" spans="1:87" s="17" customFormat="1">
-      <c r="A224" s="18"/>
       <c r="B224" s="41"/>
       <c r="C224" s="14"/>
       <c r="D224" s="14"/>
@@ -58840,7 +58863,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>